--- a/Experiment 1/experiment_1_A.xlsx
+++ b/Experiment 1/experiment_1_A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHUBHAM\College\SPIT\Sem 4\DAA\Git Repository\Experiment 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F387E29-7209-4458-B871-3F13FFB5763D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +63,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,7 +103,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -98,6 +112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -144,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +198,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +250,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -405,7 +463,7 @@
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -440,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,7 +568,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,7 +603,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -580,7 +638,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -615,7 +673,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -650,7 +708,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -685,7 +743,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -720,7 +778,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -755,7 +813,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -790,7 +848,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -825,7 +883,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -860,7 +918,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -895,7 +953,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -930,7 +988,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -965,7 +1023,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1000,7 +1058,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1035,7 +1093,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1070,7 +1128,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1105,7 +1163,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1140,7 +1198,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1175,7 +1233,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1210,7 +1268,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1245,7 +1303,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1280,7 +1338,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1315,7 +1373,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1350,7 +1408,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1385,7 +1443,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1420,7 +1478,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1455,7 +1513,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1490,7 +1548,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1525,7 +1583,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1560,7 +1618,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1595,7 +1653,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1630,7 +1688,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1665,7 +1723,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1700,7 +1758,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1735,7 +1793,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1770,7 +1828,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1805,7 +1863,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1840,7 +1898,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1875,7 +1933,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1910,7 +1968,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1945,7 +2003,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1980,7 +2038,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2015,7 +2073,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2050,7 +2108,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2085,7 +2143,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2120,7 +2178,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2155,7 +2213,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2190,7 +2248,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2225,7 +2283,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2260,7 +2318,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2295,7 +2353,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2330,7 +2388,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2365,7 +2423,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2400,7 +2458,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2435,7 +2493,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2470,7 +2528,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2505,7 +2563,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2540,7 +2598,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2575,7 +2633,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2610,7 +2668,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2645,7 +2703,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2680,7 +2738,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2715,7 +2773,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2750,7 +2808,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2785,7 +2843,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2820,7 +2878,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2855,7 +2913,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2890,7 +2948,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2925,7 +2983,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2960,7 +3018,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2995,7 +3053,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3030,7 +3088,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3065,7 +3123,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3100,7 +3158,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3135,7 +3193,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3170,7 +3228,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3205,7 +3263,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3240,7 +3298,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3275,7 +3333,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3310,7 +3368,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3345,7 +3403,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3380,7 +3438,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3415,7 +3473,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3450,7 +3508,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3485,7 +3543,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3520,7 +3578,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3555,7 +3613,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3590,7 +3648,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3625,7 +3683,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3660,7 +3718,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3695,7 +3753,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3730,7 +3788,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3765,7 +3823,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3800,7 +3858,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3835,7 +3893,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3870,7 +3928,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3905,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3940,35 +3998,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
